--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.433013333333332</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N2">
-        <v>19.29904</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O2">
-        <v>0.1097146002786867</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P2">
-        <v>0.1097146002786867</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q2">
-        <v>965.1799259510753</v>
+        <v>538.6324061357907</v>
       </c>
       <c r="R2">
-        <v>8686.619333559678</v>
+        <v>4847.691655222116</v>
       </c>
       <c r="S2">
-        <v>0.04555906857004582</v>
+        <v>0.02867954947614604</v>
       </c>
       <c r="T2">
-        <v>0.04555906857004581</v>
+        <v>0.02867954947614605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>98.12812199999999</v>
       </c>
       <c r="O3">
-        <v>0.5578561255548566</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P3">
-        <v>0.5578561255548566</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q3">
-        <v>4907.565014927069</v>
+        <v>5557.834773268718</v>
       </c>
       <c r="R3">
-        <v>44168.08513434362</v>
+        <v>50020.51295941846</v>
       </c>
       <c r="S3">
-        <v>0.2316501669952403</v>
+        <v>0.2959276039548591</v>
       </c>
       <c r="T3">
-        <v>0.2316501669952402</v>
+        <v>0.2959276039548592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.41905066666667</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N4">
-        <v>58.257152</v>
+        <v>39.629366</v>
       </c>
       <c r="O4">
-        <v>0.3311905745080944</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P4">
-        <v>0.3311905745080943</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q4">
-        <v>2913.545629911154</v>
+        <v>2244.549920127821</v>
       </c>
       <c r="R4">
-        <v>26221.91066920038</v>
+        <v>20200.94928115038</v>
       </c>
       <c r="S4">
-        <v>0.1375271299848895</v>
+        <v>0.1195113397424457</v>
       </c>
       <c r="T4">
-        <v>0.1375271299848895</v>
+        <v>0.1195113397424457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>68.382243</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07263</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N5">
-        <v>0.21789</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O5">
-        <v>0.001238699658362439</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P5">
-        <v>0.001238699658362439</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q5">
-        <v>10.89707332932</v>
+        <v>216.771619133676</v>
       </c>
       <c r="R5">
-        <v>98.07365996387999</v>
+        <v>1950.944572203084</v>
       </c>
       <c r="S5">
-        <v>0.0005143709454318601</v>
+        <v>0.01154203182940547</v>
       </c>
       <c r="T5">
-        <v>0.00051437094543186</v>
+        <v>0.01154203182940547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.433013333333332</v>
+        <v>32.709374</v>
       </c>
       <c r="N6">
-        <v>19.29904</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O6">
-        <v>0.1097146002786867</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P6">
-        <v>0.1097146002786867</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q6">
-        <v>439.90388098224</v>
+        <v>2236.740361245882</v>
       </c>
       <c r="R6">
-        <v>3959.134928840159</v>
+        <v>20130.66325121294</v>
       </c>
       <c r="S6">
-        <v>0.02076463728578939</v>
+        <v>0.1190955188081869</v>
       </c>
       <c r="T6">
-        <v>0.02076463728578939</v>
+        <v>0.1190955188081869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.709374</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N7">
-        <v>98.12812199999999</v>
+        <v>39.629366</v>
       </c>
       <c r="O7">
-        <v>0.5578561255548566</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P7">
-        <v>0.5578561255548566</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q7">
-        <v>2236.740361245882</v>
+        <v>903.3149785826461</v>
       </c>
       <c r="R7">
-        <v>20130.66325121294</v>
+        <v>8129.834807243813</v>
       </c>
       <c r="S7">
-        <v>0.1055801149106738</v>
+        <v>0.04809711841636512</v>
       </c>
       <c r="T7">
-        <v>0.1055801149106738</v>
+        <v>0.04809711841636512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.382243</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H8">
-        <v>205.146729</v>
+        <v>159.823902</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.41905066666667</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N8">
-        <v>58.257152</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O8">
-        <v>0.3311905745080944</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P8">
-        <v>0.3311905745080943</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q8">
-        <v>1327.918241517312</v>
+        <v>168.8805187471546</v>
       </c>
       <c r="R8">
-        <v>11951.26417365581</v>
+        <v>1519.924668724392</v>
       </c>
       <c r="S8">
-        <v>0.06268128521331115</v>
+        <v>0.0089920642311766</v>
       </c>
       <c r="T8">
-        <v>0.06268128521331114</v>
+        <v>0.008992064231176601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.382243</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H9">
-        <v>205.146729</v>
+        <v>159.823902</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07263</v>
+        <v>32.709374</v>
       </c>
       <c r="N9">
-        <v>0.21789</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O9">
-        <v>0.001238699658362439</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P9">
-        <v>0.001238699658362439</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q9">
-        <v>4.96660230909</v>
+        <v>1742.579928219116</v>
       </c>
       <c r="R9">
-        <v>44.69942078181</v>
+        <v>15683.21935397204</v>
       </c>
       <c r="S9">
-        <v>0.0002344368848502647</v>
+        <v>0.0927838850730046</v>
       </c>
       <c r="T9">
-        <v>0.0002344368848502646</v>
+        <v>0.09278388507300461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.433013333333332</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N10">
-        <v>19.29904</v>
+        <v>39.629366</v>
       </c>
       <c r="O10">
-        <v>0.1097146002786867</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P10">
-        <v>0.1097146002786867</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q10">
-        <v>245.4705367925333</v>
+        <v>703.7466564340145</v>
       </c>
       <c r="R10">
-        <v>2209.2348311328</v>
+        <v>6333.71990790613</v>
       </c>
       <c r="S10">
-        <v>0.01158686449745316</v>
+        <v>0.03747107827519654</v>
       </c>
       <c r="T10">
-        <v>0.01158686449745315</v>
+        <v>0.03747107827519655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>273.054848</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.709374</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N11">
-        <v>98.12812199999999</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O11">
-        <v>0.5578561255548566</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P11">
-        <v>0.5578561255548566</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q11">
-        <v>1248.12233052956</v>
+        <v>288.5278346956231</v>
       </c>
       <c r="R11">
-        <v>11233.10097476604</v>
+        <v>2596.750512260608</v>
       </c>
       <c r="S11">
-        <v>0.05891470523940839</v>
+        <v>0.01536270045421719</v>
       </c>
       <c r="T11">
-        <v>0.05891470523940838</v>
+        <v>0.01536270045421719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>273.054848</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.41905066666667</v>
+        <v>32.709374</v>
       </c>
       <c r="N12">
-        <v>58.257152</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O12">
-        <v>0.3311905745080944</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P12">
-        <v>0.3311905745080943</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q12">
-        <v>740.9909701956268</v>
+        <v>2977.151048581717</v>
       </c>
       <c r="R12">
-        <v>6668.91873176064</v>
+        <v>26794.35943723545</v>
       </c>
       <c r="S12">
-        <v>0.03497675149808137</v>
+        <v>0.1585187779701358</v>
       </c>
       <c r="T12">
-        <v>0.03497675149808136</v>
+        <v>0.1585187779701358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>273.054848</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07263</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N13">
-        <v>0.21789</v>
+        <v>39.629366</v>
       </c>
       <c r="O13">
-        <v>0.001238699658362439</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P13">
-        <v>0.001238699658362439</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q13">
-        <v>2.7714111822</v>
+        <v>1202.332278829596</v>
       </c>
       <c r="R13">
-        <v>24.9427006398</v>
+        <v>10820.99050946637</v>
       </c>
       <c r="S13">
-        <v>0.0001308180046960921</v>
+        <v>0.06401833176886081</v>
       </c>
       <c r="T13">
-        <v>0.000130818004696092</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>104.737245</v>
-      </c>
-      <c r="H14">
-        <v>314.211735</v>
-      </c>
-      <c r="I14">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J14">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>6.433013333333332</v>
-      </c>
-      <c r="N14">
-        <v>19.29904</v>
-      </c>
-      <c r="O14">
-        <v>0.1097146002786867</v>
-      </c>
-      <c r="P14">
-        <v>0.1097146002786867</v>
-      </c>
-      <c r="Q14">
-        <v>673.7760935816</v>
-      </c>
-      <c r="R14">
-        <v>6063.9848422344</v>
-      </c>
-      <c r="S14">
-        <v>0.03180402992539831</v>
-      </c>
-      <c r="T14">
-        <v>0.0318040299253983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>104.737245</v>
-      </c>
-      <c r="H15">
-        <v>314.211735</v>
-      </c>
-      <c r="I15">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J15">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>32.709374</v>
-      </c>
-      <c r="N15">
-        <v>98.12812199999999</v>
-      </c>
-      <c r="O15">
-        <v>0.5578561255548566</v>
-      </c>
-      <c r="P15">
-        <v>0.5578561255548566</v>
-      </c>
-      <c r="Q15">
-        <v>3425.88971843463</v>
-      </c>
-      <c r="R15">
-        <v>30833.00746591167</v>
-      </c>
-      <c r="S15">
-        <v>0.1617111384095342</v>
-      </c>
-      <c r="T15">
-        <v>0.1617111384095341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>104.737245</v>
-      </c>
-      <c r="H16">
-        <v>314.211735</v>
-      </c>
-      <c r="I16">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J16">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.41905066666667</v>
-      </c>
-      <c r="N16">
-        <v>58.257152</v>
-      </c>
-      <c r="O16">
-        <v>0.3311905745080944</v>
-      </c>
-      <c r="P16">
-        <v>0.3311905745080943</v>
-      </c>
-      <c r="Q16">
-        <v>2033.89786734208</v>
-      </c>
-      <c r="R16">
-        <v>18305.08080607872</v>
-      </c>
-      <c r="S16">
-        <v>0.09600540781181231</v>
-      </c>
-      <c r="T16">
-        <v>0.09600540781181229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>104.737245</v>
-      </c>
-      <c r="H17">
-        <v>314.211735</v>
-      </c>
-      <c r="I17">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J17">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.07263</v>
-      </c>
-      <c r="N17">
-        <v>0.21789</v>
-      </c>
-      <c r="O17">
-        <v>0.001238699658362439</v>
-      </c>
-      <c r="P17">
-        <v>0.001238699658362439</v>
-      </c>
-      <c r="Q17">
-        <v>7.607066104350001</v>
-      </c>
-      <c r="R17">
-        <v>68.46359493915001</v>
-      </c>
-      <c r="S17">
-        <v>0.0003590738233842221</v>
-      </c>
-      <c r="T17">
-        <v>0.000359073823384222</v>
+        <v>0.06401833176886081</v>
       </c>
     </row>
   </sheetData>
